--- a/xlsx/办公室_intext.xlsx
+++ b/xlsx/办公室_intext.xlsx
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>車站</t>
+    <t>车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9E%E5%85%AC</t>
@@ -59,25 +59,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E9%96%93</t>
   </si>
   <si>
-    <t>房間</t>
+    <t>房间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
+    <t>电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E6%93%AC%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>虛擬辦公室</t>
+    <t>虚拟办公室</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Commercial_building</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AE%E6%AE%BF</t>
   </si>
   <si>
-    <t>宮殿</t>
+    <t>宫殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%9F</t>
   </si>
   <si>
-    <t>廟</t>
+    <t>庙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B7%E8%BD%B4</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E4%BD%9C%E5%93%81</t>
   </si>
   <si>
-    <t>文學作品</t>
+    <t>文学作品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E8%A3%9D</t>
   </si>
   <si>
-    <t>時裝</t>
+    <t>时装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E5%B0%9A</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%AB%E7%95%AB</t>
   </si>
   <si>
-    <t>漫畫</t>
+    <t>漫画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%86%E4%BC%AF%E7%89%B9</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E4%BE%86%E6%B0%B4</t>
   </si>
   <si>
-    <t>自來水</t>
+    <t>自来水</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E6%89%8B%E9%96%93</t>
   </si>
   <si>
-    <t>洗手間</t>
+    <t>洗手间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>電力</t>
+    <t>电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%92%E5%BA%A7</t>
@@ -191,61 +191,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%BA%96</t>
   </si>
   <si>
-    <t>光纖</t>
+    <t>光纤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%B8%B6</t>
   </si>
   <si>
-    <t>寬帶</t>
+    <t>宽带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>電話</t>
+    <t>电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>同軸電纜</t>
+    <t>同轴电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B1%8F%E8%94%BD%E9%9B%99%E7%B5%9E%E7%B7%9A</t>
   </si>
   <si>
-    <t>非屏蔽雙絞線</t>
+    <t>非屏蔽双绞线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E8%BB%8A%E5%A0%B4</t>
   </si>
   <si>
-    <t>停車場</t>
+    <t>停车场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%87%E9%99%8D%E6%A9%9F</t>
   </si>
   <si>
-    <t>升降機</t>
+    <t>升降机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E4%BA%8B%E8%99%95</t>
   </si>
   <si>
-    <t>辦事處</t>
+    <t>办事处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%B4%9A%E5%AF%AB%E5%AD%97%E6%A8%93</t>
   </si>
   <si>
-    <t>甲級寫字樓</t>
+    <t>甲级写字楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>辦公室政治</t>
+    <t>办公室政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
